--- a/New folder/E vs ro.xlsx
+++ b/New folder/E vs ro.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Desktop\inzynierka\inz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Desktop\inzynierka\inz\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="570" yWindow="6090" windowWidth="22005" windowHeight="9480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="16815" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -1296,11 +1296,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547574016"/>
-        <c:axId val="547576736"/>
+        <c:axId val="-845969648"/>
+        <c:axId val="-845966384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="547574016"/>
+        <c:axId val="-845969648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,12 +1310,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547576736"/>
+        <c:crossAx val="-845966384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547576736"/>
+        <c:axId val="-845966384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
@@ -1327,7 +1327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547574016"/>
+        <c:crossAx val="-845969648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2637,11 +2637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="510075232"/>
-        <c:axId val="510071968"/>
+        <c:axId val="-845965296"/>
+        <c:axId val="-845964752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="510075232"/>
+        <c:axId val="-845965296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2759,12 +2759,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510071968"/>
+        <c:crossAx val="-845964752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="510071968"/>
+        <c:axId val="-845964752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2877,7 +2877,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510075232"/>
+        <c:crossAx val="-845965296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6546,11 +6546,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="549523360"/>
-        <c:axId val="549528256"/>
+        <c:axId val="-501877264"/>
+        <c:axId val="-501876176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="549523360"/>
+        <c:axId val="-501877264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -6664,12 +6664,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549528256"/>
+        <c:crossAx val="-501876176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="549528256"/>
+        <c:axId val="-501876176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.18000000000000002"/>
@@ -6788,7 +6788,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549523360"/>
+        <c:crossAx val="-501877264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7420,8 +7420,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549524992"/>
-        <c:axId val="549525536"/>
+        <c:axId val="-501874000"/>
+        <c:axId val="-501879984"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -7689,11 +7689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="549524992"/>
-        <c:axId val="549525536"/>
+        <c:axId val="-501874000"/>
+        <c:axId val="-501879984"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="549524992"/>
+        <c:axId val="-501874000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7806,7 +7806,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549525536"/>
+        <c:crossAx val="-501879984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7815,7 +7815,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="549525536"/>
+        <c:axId val="-501879984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.18000000000000002"/>
@@ -7930,7 +7930,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549524992"/>
+        <c:crossAx val="-501874000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8026,7 +8026,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8313,11 +8312,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="608824576"/>
-        <c:axId val="608816960"/>
+        <c:axId val="-491063824"/>
+        <c:axId val="-491060560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="608824576"/>
+        <c:axId val="-491063824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8374,12 +8373,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608816960"/>
+        <c:crossAx val="-491060560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="608816960"/>
+        <c:axId val="-491060560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8436,7 +8435,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608824576"/>
+        <c:crossAx val="-491063824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10748,16 +10747,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>42274</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>69030</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>31572</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>365268</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>8562</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>108414</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104883</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10778,16 +10777,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>619658</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>8990</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>191568</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>397052</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>108735</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514776</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76628</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10808,16 +10807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>14984</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>105308</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>68495</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>96321</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>107022</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>428090</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>139127</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12112,8 +12111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2:AK36"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
